--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_142__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_142__Reeval_LHS_Modell_1.2.xlsx
@@ -5957,7 +5957,7 @@
                   <c:v>49.30999755859375</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>75.02092742919922</c:v>
+                  <c:v>75.02093505859375</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>49.30999755859375</c:v>
@@ -5993,7 +5993,7 @@
                   <c:v>49.30999755859375</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26.60757827758789</c:v>
+                  <c:v>26.60757637023926</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>49.30999755859375</c:v>
@@ -6029,7 +6029,7 @@
                   <c:v>49.30999755859375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>83.06758880615234</c:v>
+                  <c:v>83.06759643554688</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>49.30999755859375</c:v>
@@ -7491,7 +7491,7 @@
         <v>98.30370000000001</v>
       </c>
       <c r="F30">
-        <v>75.02092742919922</v>
+        <v>75.02093505859375</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.2435</v>
       </c>
       <c r="F42">
-        <v>26.60757827758789</v>
+        <v>26.60757637023926</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>97.46850000000001</v>
       </c>
       <c r="F54">
-        <v>83.06758880615234</v>
+        <v>83.06759643554688</v>
       </c>
     </row>
     <row r="55" spans="1:6">
